--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl5-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl5-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cxcl5</t>
+  </si>
+  <si>
+    <t>Cxcr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Cxcl5</t>
-  </si>
-  <si>
-    <t>Cxcr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>410.9308523333334</v>
+        <v>10.317597</v>
       </c>
       <c r="H2">
-        <v>1232.792557</v>
+        <v>20.635194</v>
       </c>
       <c r="I2">
-        <v>0.9876676028533683</v>
+        <v>0.02411218825630575</v>
       </c>
       <c r="J2">
-        <v>0.9906602959892742</v>
+        <v>0.01628546888406147</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N2">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O2">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P2">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q2">
-        <v>12.29902343338589</v>
+        <v>3.773884650685</v>
       </c>
       <c r="R2">
-        <v>110.691210900473</v>
+        <v>22.64330790411</v>
       </c>
       <c r="S2">
-        <v>0.1913961561627421</v>
+        <v>0.0007377330666449447</v>
       </c>
       <c r="T2">
-        <v>0.1919760982010678</v>
+        <v>0.0004982678790444307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>410.9308523333334</v>
+        <v>10.317597</v>
       </c>
       <c r="H3">
-        <v>1232.792557</v>
+        <v>20.635194</v>
       </c>
       <c r="I3">
-        <v>0.9876676028533683</v>
+        <v>0.02411218825630575</v>
       </c>
       <c r="J3">
-        <v>0.9906602959892742</v>
+        <v>0.01628546888406147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N3">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O3">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P3">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q3">
-        <v>0.1575234933944445</v>
+        <v>118.757666894982</v>
       </c>
       <c r="R3">
-        <v>1.41771144055</v>
+        <v>712.546001369892</v>
       </c>
       <c r="S3">
-        <v>0.002451364639178</v>
+        <v>0.02321519227412833</v>
       </c>
       <c r="T3">
-        <v>0.002458792423695864</v>
+        <v>0.01567963419159808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>410.9308523333334</v>
+        <v>10.317597</v>
       </c>
       <c r="H4">
-        <v>1232.792557</v>
+        <v>20.635194</v>
       </c>
       <c r="I4">
-        <v>0.9876676028533683</v>
+        <v>0.02411218825630575</v>
       </c>
       <c r="J4">
-        <v>0.9906602959892742</v>
+        <v>0.01628546888406147</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N4">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O4">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P4">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q4">
-        <v>51.01049042354601</v>
+        <v>0.81471185111</v>
       </c>
       <c r="R4">
-        <v>459.0944138119141</v>
+        <v>4.88827110666</v>
       </c>
       <c r="S4">
-        <v>0.7938200820514483</v>
+        <v>0.0001592629155324778</v>
       </c>
       <c r="T4">
-        <v>0.7962254053645106</v>
+        <v>0.0001075668134189683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.7706535</v>
+        <v>410.9308523333334</v>
       </c>
       <c r="H5">
-        <v>7.541307000000001</v>
+        <v>1232.792557</v>
       </c>
       <c r="I5">
-        <v>0.009062722553902464</v>
+        <v>0.9603439707700846</v>
       </c>
       <c r="J5">
-        <v>0.006060122104359837</v>
+        <v>0.9729302679454375</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N5">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O5">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P5">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q5">
-        <v>0.1128544023705</v>
+        <v>150.3068627427172</v>
       </c>
       <c r="R5">
-        <v>0.677126414223</v>
+        <v>1352.761764684455</v>
       </c>
       <c r="S5">
-        <v>0.001756228771881505</v>
+        <v>0.02938254691193026</v>
       </c>
       <c r="T5">
-        <v>0.0011743668348546</v>
+        <v>0.02976763546192735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3.7706535</v>
+        <v>410.9308523333334</v>
       </c>
       <c r="H6">
-        <v>7.541307000000001</v>
+        <v>1232.792557</v>
       </c>
       <c r="I6">
-        <v>0.009062722553902464</v>
+        <v>0.9603439707700846</v>
       </c>
       <c r="J6">
-        <v>0.006060122104359837</v>
+        <v>0.9729302679454375</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N6">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O6">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P6">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q6">
-        <v>0.001445417175</v>
+        <v>4729.898762112248</v>
       </c>
       <c r="R6">
-        <v>0.00867250305</v>
+        <v>42569.08885901023</v>
       </c>
       <c r="S6">
-        <v>2.249343558413314E-05</v>
+        <v>0.9246182757758196</v>
       </c>
       <c r="T6">
-        <v>1.504106137815089E-05</v>
+        <v>0.9367363509102371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>3.7706535</v>
+        <v>410.9308523333334</v>
       </c>
       <c r="H7">
-        <v>7.541307000000001</v>
+        <v>1232.792557</v>
       </c>
       <c r="I7">
-        <v>0.009062722553902464</v>
+        <v>0.9603439707700846</v>
       </c>
       <c r="J7">
-        <v>0.006060122104359837</v>
+        <v>0.9729302679454375</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N7">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O7">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P7">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q7">
-        <v>0.4680663015690001</v>
+        <v>32.44846986974778</v>
       </c>
       <c r="R7">
-        <v>2.808397809414001</v>
+        <v>292.03622882773</v>
       </c>
       <c r="S7">
-        <v>0.007284000346436827</v>
+        <v>0.006343148082334753</v>
       </c>
       <c r="T7">
-        <v>0.004870714208127086</v>
+        <v>0.006426281573272916</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.360387</v>
+        <v>6.2889545</v>
       </c>
       <c r="H8">
-        <v>4.081161</v>
+        <v>12.577909</v>
       </c>
       <c r="I8">
-        <v>0.003269674592729273</v>
+        <v>0.01469726476420248</v>
       </c>
       <c r="J8">
-        <v>0.003279581906366005</v>
+        <v>0.009926591707645529</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N8">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O8">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P8">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q8">
-        <v>0.04071592944766667</v>
+        <v>2.300321369055833</v>
       </c>
       <c r="R8">
-        <v>0.3664433650289999</v>
+        <v>13.801928214335</v>
       </c>
       <c r="S8">
-        <v>0.0006336171674998947</v>
+        <v>0.0004496754127221216</v>
       </c>
       <c r="T8">
-        <v>0.0006355370662011287</v>
+        <v>0.0003037125815363721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.360387</v>
+        <v>6.2889545</v>
       </c>
       <c r="H9">
-        <v>4.081161</v>
+        <v>12.577909</v>
       </c>
       <c r="I9">
-        <v>0.003269674592729273</v>
+        <v>0.01469726476420248</v>
       </c>
       <c r="J9">
-        <v>0.003279581906366005</v>
+        <v>0.009926591707645529</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N9">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O9">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P9">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q9">
-        <v>0.0005214816833333333</v>
+        <v>72.387161819627</v>
       </c>
       <c r="R9">
-        <v>0.00469333515</v>
+        <v>434.3229709177619</v>
       </c>
       <c r="S9">
-        <v>8.115245103797558E-06</v>
+        <v>0.01415051275221784</v>
       </c>
       <c r="T9">
-        <v>8.139834791915469E-06</v>
+        <v>0.00955731320070018</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.2889545</v>
+      </c>
+      <c r="H10">
+        <v>12.577909</v>
+      </c>
+      <c r="I10">
+        <v>0.01469726476420248</v>
+      </c>
+      <c r="J10">
+        <v>0.009926591707645529</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.07896333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.23689</v>
+      </c>
+      <c r="O10">
+        <v>0.006605079300126477</v>
+      </c>
+      <c r="P10">
+        <v>0.006605079300126477</v>
+      </c>
+      <c r="Q10">
+        <v>0.4965968105016667</v>
+      </c>
+      <c r="R10">
+        <v>2.97958086301</v>
+      </c>
+      <c r="S10">
+        <v>9.707659926251204E-05</v>
+      </c>
+      <c r="T10">
+        <v>6.556592540897662E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>1.360387</v>
-      </c>
-      <c r="H10">
-        <v>4.081161</v>
-      </c>
-      <c r="I10">
-        <v>0.003269674592729273</v>
-      </c>
-      <c r="J10">
-        <v>0.003279581906366005</v>
-      </c>
-      <c r="K10">
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="F11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M10">
-        <v>0.124134</v>
-      </c>
-      <c r="N10">
-        <v>0.372402</v>
-      </c>
-      <c r="O10">
-        <v>0.8037320245780106</v>
-      </c>
-      <c r="P10">
-        <v>0.8037320245780106</v>
-      </c>
-      <c r="Q10">
-        <v>0.168870279858</v>
-      </c>
-      <c r="R10">
-        <v>1.519832518722</v>
-      </c>
-      <c r="S10">
-        <v>0.002627942180125581</v>
-      </c>
-      <c r="T10">
-        <v>0.00263590500537296</v>
+      <c r="G11">
+        <v>0.3622496666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.086749</v>
+      </c>
+      <c r="I11">
+        <v>0.0008465762094071585</v>
+      </c>
+      <c r="J11">
+        <v>0.0008576714628553975</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3657716666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.097315</v>
+      </c>
+      <c r="O11">
+        <v>0.03059585711603819</v>
+      </c>
+      <c r="P11">
+        <v>0.03059585711603819</v>
+      </c>
+      <c r="Q11">
+        <v>0.1325006643261111</v>
+      </c>
+      <c r="R11">
+        <v>1.192505978935</v>
+      </c>
+      <c r="S11">
+        <v>2.590172474085865E-05</v>
+      </c>
+      <c r="T11">
+        <v>2.62411935300272E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3622496666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.086749</v>
+      </c>
+      <c r="I12">
+        <v>0.0008465762094071585</v>
+      </c>
+      <c r="J12">
+        <v>0.0008576714628553975</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11.510206</v>
+      </c>
+      <c r="N12">
+        <v>34.530618</v>
+      </c>
+      <c r="O12">
+        <v>0.9627990635838353</v>
+      </c>
+      <c r="P12">
+        <v>0.9627990635838353</v>
+      </c>
+      <c r="Q12">
+        <v>4.169568286764666</v>
+      </c>
+      <c r="R12">
+        <v>37.52611458088199</v>
+      </c>
+      <c r="S12">
+        <v>0.0008150827816695651</v>
+      </c>
+      <c r="T12">
+        <v>0.0008257652812997549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3622496666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.086749</v>
+      </c>
+      <c r="I13">
+        <v>0.0008465762094071585</v>
+      </c>
+      <c r="J13">
+        <v>0.0008576714628553975</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.07896333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.23689</v>
+      </c>
+      <c r="O13">
+        <v>0.006605079300126477</v>
+      </c>
+      <c r="P13">
+        <v>0.006605079300126477</v>
+      </c>
+      <c r="Q13">
+        <v>0.02860444117888888</v>
+      </c>
+      <c r="R13">
+        <v>0.25743997061</v>
+      </c>
+      <c r="S13">
+        <v>5.591702996734761E-06</v>
+      </c>
+      <c r="T13">
+        <v>5.664988025615381E-06</v>
       </c>
     </row>
   </sheetData>
